--- a/data/Test-map.xlsx
+++ b/data/Test-map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MapMaker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8922096-EBF1-4B3C-9C2C-944DFBCBCAFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2AB3E5-9F7F-48E6-8678-E122473A0A29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4725" yWindow="3195" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>NISCODE</t>
+  </si>
+  <si>
+    <t>Data</t>
   </si>
 </sst>
 </file>
@@ -449,8 +452,8 @@
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14">
-        <v>44179</v>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
